--- a/data/api_auto/uu_api/deposit.xlsx
+++ b/data/api_auto/uu_api/deposit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29000" windowHeight="13940"/>
+    <workbookView windowHeight="15800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>case_module</t>
   </si>
@@ -72,6 +72,210 @@
   </si>
   <si>
     <t>wait</t>
+  </si>
+  <si>
+    <t>后台登录</t>
+  </si>
+  <si>
+    <t>正常流程</t>
+  </si>
+  <si>
+    <t>后台正常登录获取token</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>https://admin.innotech-stage.com/api/v1/forex-user/admin/user/login</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>{"account":"seven04","loginPwd":"Test#123","googleCode":"function:google_authentication"}</t>
+  </si>
+  <si>
+    <t>{"token1": "$.data.token"}</t>
+  </si>
+  <si>
+    <t>SELECT google_secret FROM forex.t_admin_user_info WHERE account = 'seven04' LIMIT 1;</t>
+  </si>
+  <si>
+    <t>{"$.success": true}</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>手动充值</t>
+  </si>
+  <si>
+    <t>充值1000USDT</t>
+  </si>
+  <si>
+    <t>/api/forex-exchange/order/rechargeManualOrderCreate</t>
+  </si>
+  <si>
+    <t>{"authorization":"${token}"}</t>
+  </si>
+  <si>
+    <t>{
+    "balanceId": 644,
+    "exchangeAmount": 1000,
+    "exchangeType": "recharge_manual",
+    "orderType": "recharge",
+    "orderTypeNext": "manual",
+    "paymentConfigId": 166,
+    "isSaveRelateAccount": true,
+    "paymentUserCustomInfoList": [
+        {
+            "id": 1,
+            "fieldValue": "123"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>上传图面</t>
+  </si>
+  <si>
+    <t>/api/forex-user/public/uploadFile</t>
+  </si>
+  <si>
+    <t>multipart/form-data</t>
+  </si>
+  <si>
+    <t>/images/bg.jpg</t>
+  </si>
+  <si>
+    <t>{"path_data":"$.data"}</t>
+  </si>
+  <si>
+    <t>发送请求充值接口</t>
+  </si>
+  <si>
+    <t>/api/forex-exchange/order/UploadOrderEvidence</t>
+  </si>
+  <si>
+    <t>{"orderId":${orderId},"orderEvidence":""}</t>
+  </si>
+  <si>
+    <t>查看订单详情</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/api/forex-exchange/order/v2/getOrderById?orderId=${orderId}</t>
+  </si>
+  <si>
+    <t>{"$.success": true,"$.data.status":3}</t>
+  </si>
+  <si>
+    <t>后台发送验证码</t>
+  </si>
+  <si>
+    <t>https://admin.innotech-stage.com/api/v1/forex-setting/sms/admin/manual/order/review/code</t>
+  </si>
+  <si>
+    <t>{"authorization":"${token1}"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "orderId": ${orderID},
+    "orderEvidence": "${path_data}",
+    "orderEvidences": ["${path_data}"],
+    "paymentUserCustomInfoList": [
+        {
+            "id": 1,
+            "fieldName": "测试",
+            "fieldNameEn": "test",
+            "fieldDesc": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12334</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+            "fieldType": "number_input",
+            "fieldValue": "10"
+        }
+    ],
+    "reviewStep": 1,
+    "exchangeAmount": "1000 USDT",
+    "userAccount": "${my_account}",
+    "paymentName": "手动充值通道3",
+    "reject": false
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>后台设置订单成功</t>
+  </si>
+  <si>
+    <t>https://admin.innotech-stage.com/api/v1/forex-setting/order/record/reviewManualOrder</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "orderId": ${orderID},
+    "orderEvidence": "${path_data}",
+    "orderEvidences": ["${path_data}"],
+    "paymentUserCustomInfoList": [
+        {
+            "id": 1,
+            "fieldName": "测试",
+            "fieldNameEn": "test",
+            "fieldDesc": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12334</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+            "fieldType": "number_input",
+            "fieldValue": "10"
+        }
+    ],
+    "reviewStep": 1,
+    "exchangeAmount": "1000 USDT",
+    "userAccount": "${my_account}",
+    "paymentName": "手动充值通道3",
+    "verifyCode": "function:extract_code",
+    "reject": false
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = 'seven@gaogao888.tech'  ORDER BY create_time DESC  LIMIT 1;</t>
+  </si>
+  <si>
+    <t>{"$.success": true,"$.data.status":34}</t>
   </si>
 </sst>
 </file>
@@ -84,7 +288,7 @@
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +445,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1060,14 +1270,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1080,9 +1290,9 @@
     <col min="6" max="6" width="9.69230769230769" style="2" customWidth="1"/>
     <col min="7" max="7" width="68.9038461538462" style="2" customWidth="1"/>
     <col min="8" max="8" width="31.6923076923077" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.3846153846154" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.4615384615385" style="2" customWidth="1"/>
     <col min="10" max="10" width="67.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18" style="2" customWidth="1"/>
     <col min="12" max="12" width="46" style="3" customWidth="1"/>
     <col min="13" max="13" width="35.5" style="3" customWidth="1"/>
     <col min="14" max="14" width="41.25" style="2" customWidth="1"/>
@@ -1136,7 +1346,272 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" ht="51" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="252" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="N6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" ht="336" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="353" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1" display="https://admin.innotech-stage.com/api/v1/forex-setting/sms/admin/manual/order/review/code"/>
+    <hyperlink ref="G8" r:id="rId2" display="https://admin.innotech-stage.com/api/v1/forex-setting/order/record/reviewManualOrder"/>
+    <hyperlink ref="G2" r:id="rId3" display="https://admin.innotech-stage.com/api/v1/forex-user/admin/user/login"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/data/api_auto/uu_api/deposit.xlsx
+++ b/data/api_auto/uu_api/deposit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800"/>
+    <workbookView windowWidth="29120" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>case_module</t>
   </si>
@@ -110,30 +110,31 @@
     <t>手动充值</t>
   </si>
   <si>
+    <t>获取币种ID</t>
+  </si>
+  <si>
+    <t>/api/forex-balance/balance/v2/queryBalances</t>
+  </si>
+  <si>
+    <t>{"authorization":"${token}"}</t>
+  </si>
+  <si>
+    <t>{"coinSymbol":"USD"}</t>
+  </si>
+  <si>
+    <t>{"USDT_ID": "$.data.cryptoList[?(@.coinSymbol == 'USDT')].id"}</t>
+  </si>
+  <si>
     <t>充值1000USDT</t>
   </si>
   <si>
     <t>/api/forex-exchange/order/rechargeManualOrderCreate</t>
   </si>
   <si>
-    <t>{"authorization":"${token}"}</t>
-  </si>
-  <si>
-    <t>{
-    "balanceId": 644,
-    "exchangeAmount": 1000,
-    "exchangeType": "recharge_manual",
-    "orderType": "recharge",
-    "orderTypeNext": "manual",
-    "paymentConfigId": 166,
-    "isSaveRelateAccount": true,
-    "paymentUserCustomInfoList": [
-        {
-            "id": 1,
-            "fieldValue": "123"
-        }
-    ]
-}</t>
+    <t>{"balanceId": ${USDT_ID}, "exchangeAmount": 1000, "exchangeType": "recharge_manual", "orderType": "recharge", "orderTypeNext": "manual", "paymentConfigId": 166, "isSaveRelateAccount": true, "paymentUserCustomInfoList": [{"id": 1, "fieldValue": "123"}]}</t>
+  </si>
+  <si>
+    <t>{"orderId":"$.data"}</t>
   </si>
   <si>
     <t>上传图面</t>
@@ -183,7 +184,7 @@
   <si>
     <r>
       <t>{
-    "orderId": ${orderID},
+    "orderId": ${orderId},
     "orderEvidence": "${path_data}",
     "orderEvidences": ["${path_data}"],
     "paymentUserCustomInfoList": [
@@ -231,7 +232,7 @@
   <si>
     <r>
       <t>{
-    "orderId": ${orderID},
+    "orderId": ${orderId},
     "orderEvidence": "${path_data}",
     "orderEvidences": ["${path_data}"],
     "paymentUserCustomInfoList": [
@@ -1270,14 +1271,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1381,7 +1382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="252" spans="1:14">
+    <row r="3" ht="51" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1409,11 +1410,14 @@
       <c r="J3" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="N3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="17" spans="1:14">
+    <row r="4" ht="84" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1424,21 +1428,21 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -1471,16 +1475,19 @@
         <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" ht="17" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1491,13 +1498,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1505,12 +1512,14 @@
       <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="N6" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="7" ht="336" spans="1:14">
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1521,28 +1530,25 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="N7" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="8" ht="353" spans="1:14">
+    <row r="8" ht="336" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1553,31 +1559,28 @@
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" ht="353" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1588,28 +1591,63 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="J9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="N9" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" display="https://admin.innotech-stage.com/api/v1/forex-setting/sms/admin/manual/order/review/code"/>
-    <hyperlink ref="G8" r:id="rId2" display="https://admin.innotech-stage.com/api/v1/forex-setting/order/record/reviewManualOrder"/>
+    <hyperlink ref="G8" r:id="rId1" display="https://admin.innotech-stage.com/api/v1/forex-setting/sms/admin/manual/order/review/code"/>
+    <hyperlink ref="G9" r:id="rId2" display="https://admin.innotech-stage.com/api/v1/forex-setting/order/record/reviewManualOrder"/>
     <hyperlink ref="G2" r:id="rId3" display="https://admin.innotech-stage.com/api/v1/forex-user/admin/user/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/api_auto/uu_api/deposit.xlsx
+++ b/data/api_auto/uu_api/deposit.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
   <si>
     <t>case_module</t>
   </si>
@@ -122,7 +122,15 @@
     <t>{"coinSymbol":"USD"}</t>
   </si>
   <si>
-    <t>{"USDT_ID": "$.data.cryptoList[?(@.coinSymbol == 'USDT')].id"}</t>
+    <t>{
+    "USDT_ID": "$.data.cryptoList[?(@.coinSymbol == 'USDT')].id",
+    "USDC_ID": "$.data.cryptoList[?(@.coinSymbol == 'USDC')].id",
+    "TRX_ID": "$.data.cryptoList[?(@.coinSymbol == 'TRX')].id",
+    "PHT_ID": "$.data.cryptoList[?(@.coinSymbol == 'PHT')].id",
+    "PHP_ID": "$.data.fiatList[?(@.coinSymbol == 'PHP')].id",
+    "HKD_PH_ID": "$.data.fiatList[?(@.coinSymbol == 'HKD_PH')].id",
+    "USD_PH_ID": "$.data.fiatList[?(@.coinSymbol == 'USD_PH')].id"
+}</t>
   </si>
   <si>
     <t>充值1000USDT</t>
@@ -137,7 +145,7 @@
     <t>{"orderId":"$.data"}</t>
   </si>
   <si>
-    <t>上传图面</t>
+    <t>上传图片</t>
   </si>
   <si>
     <t>/api/forex-user/public/uploadFile</t>
@@ -158,7 +166,7 @@
     <t>/api/forex-exchange/order/UploadOrderEvidence</t>
   </si>
   <si>
-    <t>{"orderId":${orderId},"orderEvidence":""}</t>
+    <t>{"orderId":${orderId},"orderEvidence":"${path_data}"}</t>
   </si>
   <si>
     <t>查看订单详情</t>
@@ -170,9 +178,6 @@
     <t>/api/forex-exchange/order/v2/getOrderById?orderId=${orderId}</t>
   </si>
   <si>
-    <t>{"$.success": true,"$.data.status":3}</t>
-  </si>
-  <si>
     <t>后台发送验证码</t>
   </si>
   <si>
@@ -183,6 +188,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
     "orderId": ${orderId},
     "orderEvidence": "${path_data}",
@@ -231,6 +242,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
     "orderId": ${orderId},
     "orderEvidence": "${path_data}",
@@ -274,9 +291,6 @@
   </si>
   <si>
     <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = 'seven@gaogao888.tech'  ORDER BY create_time DESC  LIMIT 1;</t>
-  </si>
-  <si>
-    <t>{"$.success": true,"$.data.status":34}</t>
   </si>
 </sst>
 </file>
@@ -1274,11 +1288,11 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1382,7 +1396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="51" spans="1:14">
+    <row r="3" ht="370" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1545,7 +1559,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="336" spans="1:14">
@@ -1559,22 +1573,22 @@
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>24</v>
@@ -1591,25 +1605,25 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>24</v>
@@ -1641,7 +1655,7 @@
         <v>20</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_auto/uu_api/deposit.xlsx
+++ b/data/api_auto/uu_api/deposit.xlsx
@@ -92,13 +92,13 @@
     <t>application/json</t>
   </si>
   <si>
-    <t>{"account":"seven04","loginPwd":"Test#123","googleCode":"function:google_authentication"}</t>
+    <t>{"account":"${backend_account}","loginPwd":"${backend_password}","googleCode":"function:google_authentication"}</t>
   </si>
   <si>
     <t>{"token1": "$.data.token"}</t>
   </si>
   <si>
-    <t>SELECT google_secret FROM forex.t_admin_user_info WHERE account = 'seven04' LIMIT 1;</t>
+    <t>SELECT google_secret FROM forex.t_admin_user_info WHERE account = '${backend_account}' LIMIT 1;</t>
   </si>
   <si>
     <t>{"$.success": true}</t>
@@ -1292,7 +1292,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1361,7 +1361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="51" spans="1:14">
+    <row r="2" ht="68" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>

--- a/data/api_auto/uu_api/deposit.xlsx
+++ b/data/api_auto/uu_api/deposit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29120" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t>case_module</t>
   </si>
@@ -129,7 +129,8 @@
     "PHT_ID": "$.data.cryptoList[?(@.coinSymbol == 'PHT')].id",
     "PHP_ID": "$.data.fiatList[?(@.coinSymbol == 'PHP')].id",
     "HKD_PH_ID": "$.data.fiatList[?(@.coinSymbol == 'HKD_PH')].id",
-    "USD_PH_ID": "$.data.fiatList[?(@.coinSymbol == 'USD_PH')].id"
+    "USD_PH_ID": "$.data.fiatList[?(@.coinSymbol == 'USD_PH')].id",
+    "old_amount_USDT": "$.data.cryptoList[?(@.coinSymbol == 'USDT')].totalBalance","amount_set":1000
 }</t>
   </si>
   <si>
@@ -139,7 +140,7 @@
     <t>/api/forex-exchange/order/rechargeManualOrderCreate</t>
   </si>
   <si>
-    <t>{"balanceId": ${USDT_ID}, "exchangeAmount": 1000, "exchangeType": "recharge_manual", "orderType": "recharge", "orderTypeNext": "manual", "paymentConfigId": 166, "isSaveRelateAccount": true, "paymentUserCustomInfoList": [{"id": 1, "fieldValue": "123"}]}</t>
+    <t>{"balanceId": ${USDT_ID}, "exchangeAmount": ${amount_set}, "exchangeType": "recharge_manual", "orderType": "recharge", "orderTypeNext": "manual", "paymentConfigId": 166, "isSaveRelateAccount": true, "paymentUserCustomInfoList": [{"id": 1, "fieldValue": "123"}]}</t>
   </si>
   <si>
     <t>{"orderId":"$.data"}</t>
@@ -242,12 +243,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>{
     "orderId": ${orderId},
     "orderEvidence": "${path_data}",
@@ -291,6 +286,15 @@
   </si>
   <si>
     <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = 'seven@gaogao888.tech'  ORDER BY create_time DESC  LIMIT 1;</t>
+  </si>
+  <si>
+    <t>校验余额</t>
+  </si>
+  <si>
+    <t>{ "new_amount_USDT": "$.data.cryptoList[?(@.coinSymbol == 'USDT')].totalBalance","assert_coin":"$.data.cryptoList[?(@.coinSymbol == 'USDT')].coinSymbol]"}</t>
+  </si>
+  <si>
+    <t>{"$.success": true,"$.data.cryptoList[?(@.id == ${USDT_ID})].totalBalance": "function:assert_amount_increase"}</t>
   </si>
 </sst>
 </file>
@@ -1285,14 +1289,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1396,7 +1400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="370" spans="1:14">
+    <row r="3" ht="409.5" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1656,6 +1660,41 @@
       </c>
       <c r="N10" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="84" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_auto/uu_api/deposit.xlsx
+++ b/data/api_auto/uu_api/deposit.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
   <si>
     <t>case_module</t>
   </si>
@@ -134,6 +134,18 @@
 }</t>
   </si>
   <si>
+    <t>获取通道信息</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/payment/config/v3/queryPaymentConfigListByLimit?coinId=34&amp;paymentType=recharge</t>
+  </si>
+  <si>
+    <t>{"fee_amount_USDT":"$.data[?(@.paymentName == '手动充值通道3')].feeNum","accuracy":"$.data[?(@.paymentName == '手动充值通道3')].accuracy"}</t>
+  </si>
+  <si>
     <t>充值1000USDT</t>
   </si>
   <si>
@@ -171,9 +183,6 @@
   </si>
   <si>
     <t>查看订单详情</t>
-  </si>
-  <si>
-    <t>get</t>
   </si>
   <si>
     <t>/api/forex-exchange/order/v2/getOrderById?orderId=${orderId}</t>
@@ -243,6 +252,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
     "orderId": ${orderId},
     "orderEvidence": "${path_data}",
@@ -291,10 +306,10 @@
     <t>校验余额</t>
   </si>
   <si>
-    <t>{ "new_amount_USDT": "$.data.cryptoList[?(@.coinSymbol == 'USDT')].totalBalance","assert_coin":"$.data.cryptoList[?(@.coinSymbol == 'USDT')].coinSymbol]"}</t>
-  </si>
-  <si>
-    <t>{"$.success": true,"$.data.cryptoList[?(@.id == ${USDT_ID})].totalBalance": "function:assert_amount_increase"}</t>
+    <t>{ "new_amount_USDT": "$.data.cryptoList[?(@.coinSymbol == 'USDT')].totalBalance","assert_coin":"$.data.cryptoList[?(@.coinSymbol == 'USDT')].coinSymbol]","assert_amount_type":1}</t>
+  </si>
+  <si>
+    <t>{"$.success": true,"$.data.cryptoList[?(@.coinSymbol == 'USDT')].totalBalance": "function:assert_amount_increase"}</t>
   </si>
 </sst>
 </file>
@@ -1289,14 +1304,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1435,7 +1450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="84" spans="1:14">
+    <row r="4" ht="68" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1449,10 +1464,10 @@
         <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>29</v>
@@ -1460,9 +1475,6 @@
       <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="L4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1470,7 +1482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:14">
+    <row r="5" ht="84" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1493,13 +1505,13 @@
         <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>24</v>
@@ -1516,28 +1528,31 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" ht="17" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1548,10 +1563,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>46</v>
@@ -1562,11 +1577,14 @@
       <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="J7" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="N7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="336" spans="1:14">
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1577,28 +1595,25 @@
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="N8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="353" spans="1:14">
+    <row r="9" ht="336" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1609,16 +1624,16 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>20</v>
@@ -1626,14 +1641,11 @@
       <c r="J9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="N9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" ht="353" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1644,25 +1656,31 @@
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="J10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="N10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" ht="84" spans="1:14">
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1673,13 +1691,13 @@
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>29</v>
@@ -1687,20 +1705,49 @@
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="N11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="101" spans="1:14">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>57</v>
+      <c r="L12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" display="https://admin.innotech-stage.com/api/v1/forex-setting/sms/admin/manual/order/review/code"/>
-    <hyperlink ref="G9" r:id="rId2" display="https://admin.innotech-stage.com/api/v1/forex-setting/order/record/reviewManualOrder"/>
+    <hyperlink ref="G9" r:id="rId1" display="https://admin.innotech-stage.com/api/v1/forex-setting/sms/admin/manual/order/review/code"/>
+    <hyperlink ref="G10" r:id="rId2" display="https://admin.innotech-stage.com/api/v1/forex-setting/order/record/reviewManualOrder"/>
     <hyperlink ref="G2" r:id="rId3" display="https://admin.innotech-stage.com/api/v1/forex-user/admin/user/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/api_auto/uu_api/deposit.xlsx
+++ b/data/api_auto/uu_api/deposit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="28900" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1307,11 +1307,11 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1645,7 +1645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="353" spans="1:14">
+    <row r="10" ht="353" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1678,6 +1678,9 @@
       </c>
       <c r="N10" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="O10" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
